--- a/Lap1/storyPoint.xlsx
+++ b/Lap1/storyPoint.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mozakra\3rd year 2nd term\software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3rd\recent\SoftwareEng\gitProject\Lap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>As a:</t>
   </si>
@@ -93,16 +93,30 @@
   </si>
   <si>
     <t>priority:</t>
+  </si>
+  <si>
+    <t>At sprint</t>
+  </si>
+  <si>
+    <t>story points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,18 +162,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,7 +472,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,24 +480,32 @@
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -479,6 +513,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="4"/>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" t="s">
         <v>2</v>
@@ -492,6 +532,12 @@
         <v>7</v>
       </c>
       <c r="C3" s="2"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
         <v>3</v>
@@ -505,6 +551,12 @@
         <v>8</v>
       </c>
       <c r="C4" s="4"/>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s">
         <v>4</v>
@@ -518,6 +570,12 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -527,6 +585,12 @@
         <v>10</v>
       </c>
       <c r="C6" s="4"/>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -536,6 +600,12 @@
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -545,6 +615,12 @@
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -554,6 +630,12 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -563,6 +645,12 @@
         <v>17</v>
       </c>
       <c r="C10" s="1"/>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -572,6 +660,12 @@
         <v>18</v>
       </c>
       <c r="C11" s="3"/>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -581,6 +675,12 @@
         <v>19</v>
       </c>
       <c r="C12" s="3"/>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -590,6 +690,12 @@
         <v>20</v>
       </c>
       <c r="C13" s="2"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
